--- a/materials/新建 XLSX 工作表.xlsx
+++ b/materials/新建 XLSX 工作表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10320" windowHeight="11325"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="173">
   <si>
     <t>text</t>
   </si>
@@ -237,7 +237,7 @@
     <t>[A] 普通设置</t>
   </si>
   <si>
-    <t>玩家总人数不能小于2或大于15</t>
+    <t>玩家总人数不能小于2或大于14</t>
   </si>
   <si>
     <t>若玩家之间出现空缺，将进行顺位调整\n是否开始游戏？</t>
@@ -360,6 +360,42 @@
     <t xml:space="preserve"> ，是否出牌？[Y/N]</t>
   </si>
   <si>
+    <t>牌  局  结  算</t>
+  </si>
+  <si>
+    <t xml:space="preserve">难  度 ： </t>
+  </si>
+  <si>
+    <t xml:space="preserve">平  均  分 ： </t>
+  </si>
+  <si>
+    <t>排名</t>
+  </si>
+  <si>
+    <t>玩家（）</t>
+  </si>
+  <si>
+    <t>原始分</t>
+  </si>
+  <si>
+    <t>赋分</t>
+  </si>
+  <si>
+    <t>积分</t>
+  </si>
+  <si>
+    <t>（电脑）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">共  得  经  验 ： </t>
+  </si>
+  <si>
+    <t xml:space="preserve">共  得  积  分 ： </t>
+  </si>
+  <si>
+    <t>[S] 再来一局</t>
+  </si>
+  <si>
     <t>红0</t>
   </si>
   <si>
@@ -531,6 +567,12 @@
     <t>+--+</t>
   </si>
   <si>
+    <t>+---+</t>
+  </si>
+  <si>
+    <t>|   |</t>
+  </si>
+  <si>
     <t>/--\</t>
   </si>
   <si>
@@ -540,6 +582,12 @@
     <t>|人类|</t>
   </si>
   <si>
+    <t>难  度 ： 999</t>
+  </si>
+  <si>
+    <t>平  均  分 ： 6.33</t>
+  </si>
+  <si>
     <t>|余XX牌|</t>
   </si>
   <si>
@@ -564,7 +612,16 @@
     <t>第一页[]</t>
   </si>
   <si>
+    <t>玩家经验总和：</t>
+  </si>
+  <si>
+    <t>玩家积分总和：</t>
+  </si>
+  <si>
     <t>出牌[A]</t>
+  </si>
+  <si>
+    <t>XXX</t>
   </si>
 </sst>
 </file>
@@ -1644,10 +1701,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:A51"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="15" customHeight="1"/>
@@ -2304,6 +2361,107 @@
       </c>
       <c r="B69" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:2">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:2">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:2">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:2">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:2">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:2">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:2">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:2">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:2">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="1:2">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:2">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:2">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="1:1">
+      <c r="A82">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2385,61 +2543,61 @@
     </row>
     <row r="2" customFormat="1" spans="1:19">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="K2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="L2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="M2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="N2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="O2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="P2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="Q2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="R2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="S2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:19">
@@ -2503,61 +2661,61 @@
     </row>
     <row r="5" customFormat="1" spans="1:19">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="H5" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="I5" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="J5" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="K5" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="L5" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="M5" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="N5" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="O5" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="P5" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="Q5" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="R5" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="S5" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:19">
@@ -2621,61 +2779,61 @@
     </row>
     <row r="8" customFormat="1" spans="1:19">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="G8" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="H8" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="I8" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="J8" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="K8" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="N8" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="O8" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="P8" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="Q8" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="R8" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="S8" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:19">
@@ -2739,61 +2897,61 @@
     </row>
     <row r="11" customFormat="1" spans="1:19">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="E11" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="H11" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="M11" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="O11" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="P11" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="Q11" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="R11" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="S11" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" ht="14.25"/>
@@ -2820,30 +2978,30 @@
         <v>198</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:9">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="F14" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="I14" s="8"/>
     </row>
@@ -2877,25 +3035,25 @@
     </row>
     <row r="17" customFormat="1" spans="1:9">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E17" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="F17" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="I17" s="8"/>
     </row>
@@ -2929,25 +3087,25 @@
     </row>
     <row r="20" customFormat="1" spans="1:9">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C20" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D20" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E20" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="F20" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="I20" s="8"/>
     </row>
@@ -2981,25 +3139,25 @@
     </row>
     <row r="23" customFormat="1" ht="14.25" spans="1:9">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B23" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="E23" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="F23" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="I23" s="9"/>
     </row>
@@ -3031,28 +3189,28 @@
     </row>
     <row r="26" customFormat="1" spans="1:8">
       <c r="A26" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B26" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C26" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D26" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E26" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="F26" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="G26" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="H26" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3068,171 +3226,276 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="14" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="F1">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" spans="6:6">
+      <c r="H1" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="6:8">
       <c r="F2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="H2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="F3">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="H3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="F4">
         <f>F1-F2*F3</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="H4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F5">
         <f>F4/(F2+1)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="H5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>161</v>
+      </c>
+      <c r="H6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3">
+        <v>162</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="8:12">
+      <c r="H8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8">
       <c r="C9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>156</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>163</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>164</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>163</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>165</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3">
+        <v>163</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8">
       <c r="C15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>162</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="8:8">
+      <c r="H16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>156</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>157</v>
+      </c>
+      <c r="H18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>158</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>161</v>
+      </c>
+      <c r="H20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>162</v>
+      </c>
+      <c r="H21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8">
+      <c r="H22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
+        <v>153</v>
+      </c>
+      <c r="H23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
       <c r="B24" t="s">
-        <v>150</v>
+        <v>166</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>168</v>
+      </c>
+      <c r="H26" t="s">
+        <v>169</v>
+      </c>
+      <c r="I26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>171</v>
+      </c>
+      <c r="H28" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="14" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="14" t="s">
-        <v>141</v>
+      <c r="H30" s="14" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/materials/新建 XLSX 工作表.xlsx
+++ b/materials/新建 XLSX 工作表.xlsx
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="174">
   <si>
     <t>text</t>
   </si>
@@ -394,6 +394,9 @@
   </si>
   <si>
     <t>[S] 再来一局</t>
+  </si>
+  <si>
+    <t>抽并出了一张牌</t>
   </si>
   <si>
     <t>红0</t>
@@ -1703,8 +1706,8 @@
   <sheetPr/>
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="15" customHeight="1"/>
@@ -2459,9 +2462,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="82" customHeight="1" spans="1:1">
+    <row r="82" customHeight="1" spans="1:2">
       <c r="A82">
         <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2543,61 +2549,61 @@
     </row>
     <row r="2" customFormat="1" spans="1:19">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="S2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:19">
@@ -2661,61 +2667,61 @@
     </row>
     <row r="5" customFormat="1" spans="1:19">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:19">
@@ -2779,61 +2785,61 @@
     </row>
     <row r="8" customFormat="1" spans="1:19">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="S8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:19">
@@ -2897,61 +2903,61 @@
     </row>
     <row r="11" customFormat="1" spans="1:19">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="R11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="S11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" ht="14.25"/>
@@ -2978,30 +2984,30 @@
         <v>198</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:9">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I14" s="8"/>
     </row>
@@ -3035,25 +3041,25 @@
     </row>
     <row r="17" customFormat="1" spans="1:9">
       <c r="A17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" t="s">
+        <v>145</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="B17" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D17" t="s">
-        <v>143</v>
-      </c>
-      <c r="E17" t="s">
-        <v>144</v>
-      </c>
-      <c r="F17" t="s">
-        <v>144</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="I17" s="8"/>
     </row>
@@ -3087,25 +3093,25 @@
     </row>
     <row r="20" customFormat="1" spans="1:9">
       <c r="A20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I20" s="8"/>
     </row>
@@ -3139,25 +3145,25 @@
     </row>
     <row r="23" customFormat="1" ht="14.25" spans="1:9">
       <c r="A23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I23" s="9"/>
     </row>
@@ -3189,28 +3195,28 @@
     </row>
     <row r="26" customFormat="1" spans="1:8">
       <c r="A26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3236,13 +3242,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F1">
         <v>118</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="6:8">
@@ -3250,12 +3256,12 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F3">
         <v>15</v>
@@ -3266,45 +3272,45 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F4">
         <f>F1-F2*F3</f>
         <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F5">
         <f>F4/(F2+1)</f>
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="8:12">
@@ -3326,18 +3332,18 @@
     </row>
     <row r="9" spans="3:8">
       <c r="C9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -3345,10 +3351,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -3356,10 +3362,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -3367,10 +3373,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -3378,10 +3384,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -3389,7 +3395,7 @@
     </row>
     <row r="15" spans="3:8">
       <c r="C15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H15">
         <v>6</v>
@@ -3402,7 +3408,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H17">
         <v>8</v>
@@ -3410,7 +3416,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H18">
         <v>9</v>
@@ -3418,7 +3424,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H19">
         <v>10</v>
@@ -3426,7 +3432,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H20">
         <v>11</v>
@@ -3434,7 +3440,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H21">
         <v>12</v>
@@ -3447,7 +3453,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H23">
         <v>14</v>
@@ -3455,47 +3461,47 @@
     </row>
     <row r="24" spans="2:8">
       <c r="B24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H26" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/materials/新建 XLSX 工作表.xlsx
+++ b/materials/新建 XLSX 工作表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="180">
   <si>
     <t>text</t>
   </si>
@@ -399,6 +399,12 @@
     <t>抽并出了一张牌</t>
   </si>
   <si>
+    <t>[ESC] 暂停游戏</t>
+  </si>
+  <si>
+    <t>[D] 继续游戏</t>
+  </si>
+  <si>
     <t>红0</t>
   </si>
   <si>
@@ -594,6 +600,9 @@
     <t>|余XX牌|</t>
   </si>
   <si>
+    <t>P</t>
+  </si>
+  <si>
     <t>\--/</t>
   </si>
   <si>
@@ -606,10 +615,19 @@
     <t>|牌局信息|</t>
   </si>
   <si>
+    <t>[A]</t>
+  </si>
+  <si>
+    <t>[S]</t>
+  </si>
+  <si>
     <t>第XX页/共XX页</t>
   </si>
   <si>
     <t>上一页[]</t>
+  </si>
+  <si>
+    <t>[D]</t>
   </si>
   <si>
     <t>第一页[]</t>
@@ -1704,10 +1722,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="15" customHeight="1"/>
@@ -2470,6 +2488,22 @@
         <v>97</v>
       </c>
     </row>
+    <row r="83" customHeight="1" spans="1:2">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="1:2">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2482,8 +2516,8 @@
   <sheetPr/>
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2549,61 +2583,61 @@
     </row>
     <row r="2" customFormat="1" spans="1:19">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="R2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="S2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:19">
@@ -2667,61 +2701,61 @@
     </row>
     <row r="5" customFormat="1" spans="1:19">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="R5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="S5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:19">
@@ -2785,61 +2819,61 @@
     </row>
     <row r="8" customFormat="1" spans="1:19">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="R8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:19">
@@ -2903,61 +2937,61 @@
     </row>
     <row r="11" customFormat="1" spans="1:19">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="R11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="S11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" ht="14.25"/>
@@ -2984,30 +3018,30 @@
         <v>198</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:9">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D14" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I14" s="8"/>
     </row>
@@ -3041,25 +3075,25 @@
     </row>
     <row r="17" customFormat="1" spans="1:9">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="D17" t="s">
-        <v>144</v>
-      </c>
-      <c r="E17" t="s">
-        <v>145</v>
-      </c>
-      <c r="F17" t="s">
-        <v>145</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="I17" s="8"/>
     </row>
@@ -3093,25 +3127,25 @@
     </row>
     <row r="20" customFormat="1" spans="1:9">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I20" s="8"/>
     </row>
@@ -3145,25 +3179,25 @@
     </row>
     <row r="23" customFormat="1" ht="14.25" spans="1:9">
       <c r="A23" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C23" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D23" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E23" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F23" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I23" s="9"/>
     </row>
@@ -3195,28 +3229,28 @@
     </row>
     <row r="26" customFormat="1" spans="1:8">
       <c r="A26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E26" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G26" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H26" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3232,23 +3266,26 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="A1" s="14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F1">
         <v>118</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>155</v>
+        <v>157</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="6:8">
@@ -3256,12 +3293,12 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F3">
         <v>15</v>
@@ -3272,48 +3309,54 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F4">
         <f>F1-F2*F3</f>
         <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F5">
         <f>F4/(F2+1)</f>
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="M6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="8:12">
+        <v>157</v>
+      </c>
+      <c r="M7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="8:13">
       <c r="H8" t="s">
         <v>88</v>
       </c>
@@ -3329,32 +3372,41 @@
       <c r="L8" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="9" spans="3:8">
+      <c r="M8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13">
       <c r="C9" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="M9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
+      <c r="M10" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -3362,10 +3414,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -3373,10 +3425,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C13" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -3384,21 +3436,24 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C14" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="3:8">
+    <row r="15" spans="3:13">
       <c r="C15" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H15">
         <v>6</v>
+      </c>
+      <c r="M15" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="8:8">
@@ -3408,7 +3463,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H17">
         <v>8</v>
@@ -3416,7 +3471,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H18">
         <v>9</v>
@@ -3424,23 +3479,26 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H20">
         <v>11</v>
       </c>
+      <c r="M20" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H21">
         <v>12</v>
@@ -3453,7 +3511,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H23">
         <v>14</v>
@@ -3461,47 +3519,53 @@
     </row>
     <row r="24" spans="2:8">
       <c r="B24" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>168</v>
+        <v>173</v>
+      </c>
+      <c r="M25" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H26" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I26" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="H28" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>155</v>
+        <v>157</v>
+      </c>
+      <c r="M30" s="14" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
